--- a/recruiter.xlsx
+++ b/recruiter.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +433,7 @@
         <v>murtazasmurtaz@gmail.com</v>
       </c>
       <c r="E2" t="str">
-        <v>$2b$10$IuNxPJRNo9C87wa9V0ukv.dheVlJ/CumEEOqAJnQ68aYfwGdX92QW</v>
+        <v>$2b$10$S.yjhL0mAORMSudaq7QcmupyZfO7xD13Oxdxz1ZHqxLAijLVDeaQ6</v>
       </c>
     </row>
     <row r="3">
@@ -453,9 +453,26 @@
         <v>$2b$10$XE.GeFbNDueCkgxUjwFX5.nPvK6pi/ToLkSB.dkUn6UOWxr56zKRG</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Naeem</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Shaikh</v>
+      </c>
+      <c r="D4" t="str">
+        <v>chaseyourdreams121@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>$2b$10$jQHNu2bsZwmZWz5kQBYmce33Ps8KvDIWwCdgdpWJkXNnwIzIeIoP.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>